--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1237995.992152184</v>
+        <v>1273314.747477952</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914461</v>
+        <v>426806.9758914466</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478708</v>
+        <v>8362709.488478714</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>87.7061602166668</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>200.160833108852</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -718,7 +718,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -794,10 +794,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>87.7061602166668</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,19 +1025,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>8.761484343574239</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>65.59445268283731</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11.86372679529251</v>
-      </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>21.21290757274857</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>88.06954593946759</v>
+        <v>286.1544687673186</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>77.24342326703558</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1508,7 +1508,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V12" t="n">
-        <v>193.1745097440184</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.3125801111236</v>
+        <v>180.6083922467224</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>27.64588984285144</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597628</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>71.2341512946542</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>171.5399637926868</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1703,10 +1703,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>73.64690839405468</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>80.79258128802718</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>85.73493885277918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>85.16480783628987</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>150.4323996874802</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597627</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>43.76331341951727</v>
+        <v>39.25814436821068</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405352</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>13.0899379927405</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>203.1358366650515</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>216.7087340736987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>108.1534081265093</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.2581443682111</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>88.59211149845179</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>141.6059242355811</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>68.58536175915924</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>132.5044881634959</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -2374,13 +2374,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>167.6846440834281</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951727</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3677099213027</v>
+        <v>104.4814346654902</v>
       </c>
       <c r="U24" t="n">
         <v>225.8957288909827</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>13.08993799274036</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>259.6342901482064</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>118.145133793352</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>157.9579635214873</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.14211163852981</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="G28" t="n">
-        <v>68.58536175915926</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>183.7474164844035</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>45.43345970665899</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
@@ -2936,10 +2936,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>147.5310530237951</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>150.7617616219096</v>
+        <v>54.82618992455453</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>110.6440585833982</v>
+        <v>64.7935001051617</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
         <v>217.4184586216305</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>34.3807559479629</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3164,10 +3164,10 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>84.54929467357414</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>156.0900476688795</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>108.0529342638478</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.2354851304613</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
@@ -3325,7 +3325,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>321.122189401381</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3350,19 +3350,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>106.6703148185778</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>148.477874827925</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.73493885277918</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>186.5272380571385</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>201.8394367714045</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>43.76331341951682</v>
+        <v>20.17002628298199</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>204.6130224753724</v>
+        <v>35.97641848124702</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>59.25731814671208</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.3166206999908</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>43.76331341951727</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>88.59211149845176</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>154.1918883064001</v>
+        <v>132.203723304543</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -4033,10 +4033,10 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>244.6118279794825</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>223.8047436006534</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4064,13 +4064,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>64.7588051995878</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>41.05519381681711</v>
       </c>
       <c r="U46" t="n">
-        <v>47.61011138094008</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625565</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625565</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>248.9911026845557</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>233.5337920632072</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>233.5337920632072</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>348.0024326625565</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625565</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>487.2836868729568</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>487.2836868729568</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>487.2836868729568</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>487.2836868729568</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N3" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N3" t="n">
-        <v>851.8101010141643</v>
-      </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.2836868729568</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
         <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4603,16 +4603,16 @@
         <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>685.8223048580254</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>511.3692755768984</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>854.0376418780934</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>854.0376418780934</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>854.0376418780934</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>854.0376418780934</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>854.0376418780934</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>854.0376418780934</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>854.0376418780934</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>499.3853800778592</v>
+        <v>341.056931913353</v>
       </c>
       <c r="G8" t="n">
-        <v>255.9366034337592</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>318.0035561858384</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>318.0035561858384</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>318.0035561858384</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>525.7638549507924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>318.0035561858384</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>523.5671424434011</v>
+        <v>868.9234423237267</v>
       </c>
       <c r="C11" t="n">
-        <v>523.5671424434011</v>
+        <v>499.960925383315</v>
       </c>
       <c r="D11" t="n">
-        <v>523.5671424434011</v>
+        <v>499.960925383315</v>
       </c>
       <c r="E11" t="n">
-        <v>137.7788898451568</v>
+        <v>499.960925383315</v>
       </c>
       <c r="F11" t="n">
-        <v>137.7788898451568</v>
+        <v>499.960925383315</v>
       </c>
       <c r="G11" t="n">
-        <v>137.7788898451568</v>
+        <v>499.960925383315</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
         <v>145.9660485697318</v>
@@ -5053,40 +5053,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.618379962291</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T11" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U11" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V11" t="n">
-        <v>1639.940887950407</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W11" t="n">
-        <v>1287.172232680293</v>
+        <v>2019.12837262474</v>
       </c>
       <c r="X11" t="n">
-        <v>913.7064744192128</v>
+        <v>1645.66261436366</v>
       </c>
       <c r="Y11" t="n">
-        <v>523.5671424434011</v>
+        <v>1255.523282387848</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>922.6086434646021</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C12" t="n">
-        <v>748.1556141834751</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D12" t="n">
-        <v>599.2212045222238</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="E12" t="n">
-        <v>439.9837495167684</v>
+        <v>446.143983200839</v>
       </c>
       <c r="F12" t="n">
-        <v>293.4491915436533</v>
+        <v>299.609425227724</v>
       </c>
       <c r="G12" t="n">
-        <v>155.419303992815</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.002248079784</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>2158.207869599013</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2383.337730684676</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2183.976407531844</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1955.798903601559</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1760.673136183358</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1506.435779455157</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1298.584279249624</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>1090.82398048467</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5226,25 +5226,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>424.5997883913116</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U13" t="n">
-        <v>424.5997883913116</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V13" t="n">
-        <v>424.5997883913116</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W13" t="n">
-        <v>424.5997883913116</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X13" t="n">
-        <v>196.6102374932942</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256328</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>417.782269472975</v>
+        <v>820.7988449929635</v>
       </c>
       <c r="C14" t="n">
-        <v>48.81975253256328</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D14" t="n">
-        <v>48.81975253256328</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5296,16 +5296,16 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P14" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q14" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.618379962291</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
         <v>1971.003775293977</v>
@@ -5314,16 +5314,16 @@
         <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>1639.940887950407</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W14" t="n">
-        <v>1567.987199773988</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X14" t="n">
-        <v>1194.521441512908</v>
+        <v>1597.538017032897</v>
       </c>
       <c r="Y14" t="n">
-        <v>804.3821095370968</v>
+        <v>1207.398685057085</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>890.3999085640016</v>
+        <v>987.5947662523754</v>
       </c>
       <c r="C15" t="n">
-        <v>715.9468792828746</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D15" t="n">
-        <v>567.0124696216234</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E15" t="n">
-        <v>407.7750146161679</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F15" t="n">
-        <v>261.2404566430529</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G15" t="n">
-        <v>123.2105690922145</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561438</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494433</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.24906426269</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640016</v>
+        <v>1155.810103272443</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256328</v>
+        <v>130.4284205002675</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
@@ -5463,25 +5463,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>135.4207008687039</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>135.4207008687039</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256328</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256328</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256328</v>
+        <v>130.4284205002675</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>927.9998869559681</v>
+        <v>1511.902889174301</v>
       </c>
       <c r="C17" t="n">
-        <v>559.0373700155565</v>
+        <v>1511.902889174301</v>
       </c>
       <c r="D17" t="n">
-        <v>200.771671408806</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="E17" t="n">
-        <v>200.771671408806</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F17" t="n">
-        <v>200.771671408806</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G17" t="n">
-        <v>200.771671408806</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H17" t="n">
-        <v>200.771671408806</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5533,34 +5533,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P17" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q17" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T17" t="n">
-        <v>2371.897027894855</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U17" t="n">
-        <v>2371.897027894855</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V17" t="n">
-        <v>2040.834140551284</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="W17" t="n">
-        <v>1688.06548528117</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="X17" t="n">
-        <v>1314.59972702009</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="Y17" t="n">
-        <v>1314.59972702009</v>
+        <v>1898.502729238423</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439335</v>
+        <v>890.3999085640012</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628066</v>
+        <v>715.9468792828742</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7971326015553</v>
+        <v>567.0124696216229</v>
       </c>
       <c r="E18" t="n">
-        <v>239.5596775960998</v>
+        <v>407.7750146161674</v>
       </c>
       <c r="F18" t="n">
-        <v>93.02511962298476</v>
+        <v>261.2404566430524</v>
       </c>
       <c r="G18" t="n">
-        <v>48.81975253256328</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505445</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404816</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658749</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561438</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.002248079784</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
         <v>2222.939999577549</v>
@@ -5627,10 +5627,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
         <v>1306.011707534488</v>
@@ -5639,7 +5639,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640016</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K19" t="n">
-        <v>93.68771932371205</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L19" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>351.4590821581506</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256328</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256328</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>938.0140410570364</v>
+        <v>1482.679287035396</v>
       </c>
       <c r="C20" t="n">
-        <v>569.0515241166247</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D20" t="n">
-        <v>569.0515241166247</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E20" t="n">
-        <v>569.0515241166247</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
-        <v>158.0656193270171</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
-        <v>158.0656193270171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0656193270171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5770,7 +5770,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P20" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q20" t="n">
         <v>2440.987626628164</v>
@@ -5785,19 +5785,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>2440.987626628164</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V20" t="n">
-        <v>2440.987626628164</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.21897135805</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X20" t="n">
-        <v>1714.75321309697</v>
+        <v>1482.679287035396</v>
       </c>
       <c r="Y20" t="n">
-        <v>1324.613881121158</v>
+        <v>1482.679287035396</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>850.7452172829803</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C21" t="n">
-        <v>676.2921880018533</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D21" t="n">
-        <v>527.3577783406021</v>
+        <v>616.8447596521695</v>
       </c>
       <c r="E21" t="n">
-        <v>368.1203233351466</v>
+        <v>457.607304646714</v>
       </c>
       <c r="F21" t="n">
-        <v>221.5857653620315</v>
+        <v>311.072746673599</v>
       </c>
       <c r="G21" t="n">
         <v>221.5857653620315</v>
@@ -5828,55 +5828,55 @@
         <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>81.93751399838828</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>318.2287647883254</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>697.3559079137187</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M21" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.953720827628</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2127.159342346857</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494433</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.24906426269</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640016</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256328</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256328</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256328</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256328</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K22" t="n">
-        <v>93.68771932371205</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>497.6018825741107</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U22" t="n">
-        <v>497.6018825741107</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V22" t="n">
-        <v>497.6018825741107</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W22" t="n">
-        <v>497.6018825741107</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="X22" t="n">
-        <v>269.6123316760934</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256328</v>
+        <v>343.6227936128668</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>776.0479680797255</v>
+        <v>600.8503357988541</v>
       </c>
       <c r="C23" t="n">
-        <v>407.0854511393138</v>
+        <v>600.8503357988541</v>
       </c>
       <c r="D23" t="n">
-        <v>48.81975253256328</v>
+        <v>600.8503357988541</v>
       </c>
       <c r="E23" t="n">
-        <v>48.81975253256328</v>
+        <v>600.8503357988541</v>
       </c>
       <c r="F23" t="n">
-        <v>48.81975253256328</v>
+        <v>600.8503357988541</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256328</v>
+        <v>182.6626698694278</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256328</v>
@@ -5989,10 +5989,10 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S23" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T23" t="n">
-        <v>2040.094374027287</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U23" t="n">
-        <v>1870.715945660188</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="V23" t="n">
-        <v>1539.653058316617</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="W23" t="n">
-        <v>1539.653058316617</v>
+        <v>1364.455426035746</v>
       </c>
       <c r="X23" t="n">
-        <v>1166.187300055537</v>
+        <v>990.9896677746658</v>
       </c>
       <c r="Y23" t="n">
-        <v>776.0479680797255</v>
+        <v>600.8503357988541</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439335</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628066</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015553</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960998</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298476</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
         <v>48.81975253256328</v>
@@ -6068,25 +6068,25 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6098,22 +6098,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494433</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.24906426269</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640016</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.04191212118991</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C25" t="n">
-        <v>62.04191212118991</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D25" t="n">
-        <v>62.04191212118991</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E25" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256328</v>
@@ -6180,19 +6180,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>351.4590821581505</v>
+        <v>378.3813109451961</v>
       </c>
       <c r="V25" t="n">
-        <v>351.4590821581505</v>
+        <v>378.3813109451961</v>
       </c>
       <c r="W25" t="n">
-        <v>62.04191212118991</v>
+        <v>378.3813109451961</v>
       </c>
       <c r="X25" t="n">
-        <v>62.04191212118991</v>
+        <v>378.3813109451961</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.04191212118991</v>
+        <v>378.3813109451961</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>537.1207884561588</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="C26" t="n">
-        <v>168.1582715157471</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="D26" t="n">
-        <v>168.1582715157471</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E26" t="n">
-        <v>168.1582715157471</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F26" t="n">
-        <v>168.1582715157471</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G26" t="n">
-        <v>168.1582715157471</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6226,19 +6226,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O26" t="n">
         <v>2037.925350935285</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2040.094374027286</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2040.094374027286</v>
+        <v>2212.343529388301</v>
       </c>
       <c r="V26" t="n">
-        <v>2040.094374027286</v>
+        <v>1881.280642044731</v>
       </c>
       <c r="W26" t="n">
-        <v>1687.325718757172</v>
+        <v>1528.511986774617</v>
       </c>
       <c r="X26" t="n">
-        <v>1313.859960496092</v>
+        <v>1155.046228513537</v>
       </c>
       <c r="Y26" t="n">
-        <v>923.7206285202806</v>
+        <v>764.9068965377251</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>882.175553373567</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>707.72252409244</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>558.7881144311888</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>399.5506594257333</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>253.0161014526182</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.9009368039367</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C28" t="n">
-        <v>412.9009368039367</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D28" t="n">
-        <v>412.9009368039367</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E28" t="n">
-        <v>264.9878432215436</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F28" t="n">
-        <v>118.0978957236332</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6414,22 +6414,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>412.9009368039367</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V28" t="n">
-        <v>412.9009368039367</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W28" t="n">
-        <v>412.9009368039367</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X28" t="n">
-        <v>412.9009368039367</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y28" t="n">
-        <v>412.9009368039367</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1555.180333090949</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C29" t="n">
-        <v>1555.180333090949</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D29" t="n">
-        <v>1555.180333090949</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E29" t="n">
-        <v>1369.576882096602</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="T29" t="n">
-        <v>2259.7089786956</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U29" t="n">
-        <v>2259.7089786956</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V29" t="n">
-        <v>1928.646091352029</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W29" t="n">
-        <v>1928.646091352029</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X29" t="n">
-        <v>1555.180333090949</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y29" t="n">
-        <v>1555.180333090949</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C30" t="n">
-        <v>722.1845715439331</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D30" t="n">
-        <v>573.2501618826818</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E30" t="n">
-        <v>414.0127068772263</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F30" t="n">
-        <v>267.4781489041113</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G30" t="n">
         <v>221.5857653620315</v>
@@ -6542,25 +6542,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6584,10 +6584,10 @@
         <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1156.990441853887</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.936391944899</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="C31" t="n">
-        <v>198.936391944899</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I31" t="n">
         <v>48.81975253256327</v>
@@ -6654,19 +6654,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>488.3535619818596</v>
+        <v>585.2581798579758</v>
       </c>
       <c r="V31" t="n">
-        <v>488.3535619818596</v>
+        <v>585.2581798579758</v>
       </c>
       <c r="W31" t="n">
-        <v>198.936391944899</v>
+        <v>585.2581798579758</v>
       </c>
       <c r="X31" t="n">
-        <v>198.936391944899</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="Y31" t="n">
-        <v>198.936391944899</v>
+        <v>357.2686289599586</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1375.543251186607</v>
+        <v>841.4959479839292</v>
       </c>
       <c r="C32" t="n">
-        <v>1375.543251186607</v>
+        <v>472.5334310435175</v>
       </c>
       <c r="D32" t="n">
-        <v>1375.543251186607</v>
+        <v>114.267732436767</v>
       </c>
       <c r="E32" t="n">
-        <v>989.7549985883629</v>
+        <v>114.267732436767</v>
       </c>
       <c r="F32" t="n">
-        <v>578.7690937987554</v>
+        <v>114.267732436767</v>
       </c>
       <c r="G32" t="n">
-        <v>160.5814278693292</v>
+        <v>114.267732436767</v>
       </c>
       <c r="H32" t="n">
-        <v>160.5814278693292</v>
+        <v>114.267732436767</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6727,25 +6727,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S32" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T32" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U32" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V32" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W32" t="n">
-        <v>2152.282423226541</v>
+        <v>1618.235120023863</v>
       </c>
       <c r="X32" t="n">
-        <v>2152.282423226541</v>
+        <v>1618.235120023863</v>
       </c>
       <c r="Y32" t="n">
-        <v>1762.143091250729</v>
+        <v>1228.095788048051</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>957.3366797756757</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C33" t="n">
-        <v>782.8836504945488</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D33" t="n">
-        <v>633.9492408332975</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E33" t="n">
-        <v>474.711785827842</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F33" t="n">
-        <v>328.177227854727</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>190.1473403038886</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
-        <v>83.54778884363691</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>81.93751399838814</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>318.2287647883252</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>697.3559079137185</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V33" t="n">
-        <v>1795.401172494432</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W33" t="n">
-        <v>1541.163815766231</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X33" t="n">
-        <v>1333.312315560698</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y33" t="n">
-        <v>1125.552016795744</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>492.7250760983651</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>345.8351286004547</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
         <v>48.81975253256327</v>
@@ -6894,16 +6894,16 @@
         <v>640.6381696807582</v>
       </c>
       <c r="V34" t="n">
-        <v>385.9536814748714</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W34" t="n">
-        <v>276.8093034305806</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1040.089578155562</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="C35" t="n">
-        <v>1040.089578155562</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="D35" t="n">
-        <v>1040.089578155562</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="E35" t="n">
-        <v>1040.089578155562</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="F35" t="n">
-        <v>629.1036733659547</v>
+        <v>872.7758805684409</v>
       </c>
       <c r="G35" t="n">
-        <v>210.9160074365284</v>
+        <v>454.5882146390147</v>
       </c>
       <c r="H35" t="n">
         <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,34 +6955,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U35" t="n">
-        <v>1717.224081305859</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V35" t="n">
-        <v>1392.858233425676</v>
+        <v>1636.530440628163</v>
       </c>
       <c r="W35" t="n">
-        <v>1040.089578155562</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X35" t="n">
-        <v>1040.089578155562</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="Y35" t="n">
-        <v>1040.089578155562</v>
+        <v>1283.761785358048</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F36" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>81.9375139983886</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883257</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658748</v>
+        <v>697.355907913719</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309282</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827628</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S36" t="n">
         <v>2222.939999577549</v>
@@ -7049,10 +7049,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W36" t="n">
         <v>1306.011707534488</v>
@@ -7061,7 +7061,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="C37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="D37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="E37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="F37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256327</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K37" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7119,28 +7119,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>487.9764913965093</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T37" t="n">
-        <v>487.9764913965093</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="V37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="W37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="X37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.7974038739017</v>
+        <v>135.4207008687039</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1537.541479346165</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.578962405754</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="D38" t="n">
-        <v>810.3132637990032</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E38" t="n">
-        <v>810.3132637990032</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F38" t="n">
-        <v>399.3273590093956</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G38" t="n">
-        <v>399.3273590093956</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2221.37302195985</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U38" t="n">
-        <v>2221.37302195985</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V38" t="n">
-        <v>1890.310134616279</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W38" t="n">
-        <v>1537.541479346165</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="X38" t="n">
-        <v>1537.541479346165</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="Y38" t="n">
-        <v>1537.541479346165</v>
+        <v>1182.282975001274</v>
       </c>
     </row>
     <row r="39">
@@ -7235,19 +7235,19 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015548</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E39" t="n">
-        <v>239.5596775960993</v>
+        <v>388.4940872573506</v>
       </c>
       <c r="F39" t="n">
-        <v>93.02511962298431</v>
+        <v>241.9595292842356</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7256,22 +7256,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="C40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="D40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="E40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H40" t="n">
         <v>48.81975253256327</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>424.5997883913116</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="V40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="W40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="X40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.9199677091171</v>
+        <v>376.5611201562124</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1951.534578397632</v>
+        <v>1161.83622067797</v>
       </c>
       <c r="C41" t="n">
-        <v>1951.534578397632</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D41" t="n">
-        <v>1593.268879790881</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E41" t="n">
-        <v>1207.480627192637</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F41" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G41" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U41" t="n">
-        <v>2187.207932640047</v>
+        <v>2312.041150978983</v>
       </c>
       <c r="V41" t="n">
-        <v>2187.207932640047</v>
+        <v>2312.041150978983</v>
       </c>
       <c r="W41" t="n">
-        <v>2187.207932640047</v>
+        <v>2312.041150978983</v>
       </c>
       <c r="X41" t="n">
-        <v>2187.207932640047</v>
+        <v>1938.575392717903</v>
       </c>
       <c r="Y41" t="n">
-        <v>1951.534578397632</v>
+        <v>1548.436060742092</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439335</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628066</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015553</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960998</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F42" t="n">
-        <v>93.02511962298476</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G42" t="n">
-        <v>93.02511962298476</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H42" t="n">
-        <v>93.02511962298476</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2351.500645316596</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2152.139322163765</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494433</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.24906426269</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640016</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="43">
@@ -7557,22 +7557,22 @@
         <v>351.4590821581505</v>
       </c>
       <c r="F43" t="n">
-        <v>204.5691346602402</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="G43" t="n">
-        <v>204.5691346602402</v>
+        <v>182.3588669815966</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1040.089578155562</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C44" t="n">
-        <v>1040.089578155562</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D44" t="n">
-        <v>1040.089578155562</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E44" t="n">
-        <v>1040.089578155562</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F44" t="n">
-        <v>629.1036733659547</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G44" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U44" t="n">
-        <v>1723.921120769247</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V44" t="n">
-        <v>1392.858233425676</v>
+        <v>1560.249282462751</v>
       </c>
       <c r="W44" t="n">
-        <v>1040.089578155562</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="X44" t="n">
-        <v>1040.089578155562</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="Y44" t="n">
-        <v>1040.089578155562</v>
+        <v>1207.480627192637</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E45" t="n">
-        <v>333.3841980565167</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F45" t="n">
-        <v>186.8496400834017</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G45" t="n">
         <v>48.81975253256327</v>
@@ -7727,52 +7727,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C46" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D46" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E46" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F46" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T46" t="n">
-        <v>412.9009368039367</v>
+        <v>230.468217362803</v>
       </c>
       <c r="U46" t="n">
-        <v>364.8099152070275</v>
+        <v>230.468217362803</v>
       </c>
       <c r="V46" t="n">
-        <v>364.8099152070275</v>
+        <v>230.468217362803</v>
       </c>
       <c r="W46" t="n">
-        <v>364.8099152070275</v>
+        <v>230.468217362803</v>
       </c>
       <c r="X46" t="n">
-        <v>364.8099152070275</v>
+        <v>230.468217362803</v>
       </c>
       <c r="Y46" t="n">
-        <v>364.8099152070275</v>
+        <v>230.468217362803</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>289.3053491854096</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>203.8252941185853</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>94.72888660085714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.40241131725692</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>193.2401765302593</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>94.72888660085704</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085749</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>233.1030882730268</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928321</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>354.1197822338756</v>
+        <v>447.9802256040016</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119836</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,10 +23275,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>238.122884962162</v>
+        <v>40.03796213431093</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>59.40616540829441</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>39.62607740540685</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,10 +23466,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2872966473816</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.27207324097117</v>
+        <v>37.97626110537243</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>337.6270019281561</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23554,10 +23554,10 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>278.0068174227588</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.168535195628976</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>31.88664755159449</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>86.45423981060065</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23676,7 +23676,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>200.7880594838118</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>269.5182337843931</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>10.04289266744524</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>92.88627525581273</v>
+        <v>97.39144430711931</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,19 +23946,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>239.0477053310875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>15.44881668704332</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>148.5641576973088</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>52.32188422841615</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597627</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
@@ -24025,19 +24025,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.2750392816562</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>48.05747717687821</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -24150,7 +24150,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24180,7 +24180,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>83.85393631247217</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>217.9376365774318</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>193.6879427381337</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>83.55725296480813</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581273</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>92.88627525581254</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>132.3311100301909</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24420,13 +24420,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>26.65300649917515</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,7 +24460,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>208.0472971082776</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>93.28393352674894</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.3910720113375</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>132.3311100301909</v>
       </c>
       <c r="G28" t="n">
-        <v>98.82385126562907</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24654,16 +24654,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>198.1829535878583</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>152.7347521807026</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
@@ -24739,7 +24739,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>91.216128968671</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>58.24193217968238</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>52.22830032617343</v>
@@ -24894,16 +24894,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>135.525535025472</v>
+        <v>231.4611067228271</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>49.83123377152728</v>
+        <v>95.6817922497638</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>31.12404080756151</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>141.3464342174085</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>11.31916535590881</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25134,13 +25134,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>178.4700640727432</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>84.95694577116822</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.630069068753926</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>50.97476563682318</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>18.93133819686332</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>52.22023578555383</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25359,10 +25359,10 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>139.6651928444911</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>167.8916639070645</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>92.88627525581317</v>
+        <v>116.479562392348</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25599,13 +25599,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>81.67427417200915</v>
+        <v>250.3108781661346</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
@@ -25684,7 +25684,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>191.9845789015242</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.9213179560628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.74148333600714</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>70.20164229760302</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.862852616224188</v>
+        <v>24.85101761808124</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.630069068753727</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>103.9475148694815</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25952,13 +25952,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>92.88627525581315</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H45" t="n">
         <v>105.5335559456492</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26070,16 +26070,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>184.4046667312362</v>
       </c>
       <c r="U46" t="n">
-        <v>238.6771852664415</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671551.8910849364</v>
+        <v>671551.8910849362</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671551.8910849363</v>
+        <v>671551.8910849362</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671551.8910849361</v>
+        <v>671551.8910849362</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671551.8910849363</v>
+        <v>671551.8910849362</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671551.8910849362</v>
+        <v>671551.8910849361</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671551.8910849362</v>
+        <v>671551.8910849363</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671551.8910849361</v>
+        <v>671551.8910849363</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671551.8910849362</v>
+        <v>671551.8910849363</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26328,31 +26328,31 @@
         <v>338927.9918218706</v>
       </c>
       <c r="G2" t="n">
-        <v>338927.9918218704</v>
+        <v>338927.9918218705</v>
       </c>
       <c r="H2" t="n">
-        <v>338927.9918218704</v>
+        <v>338927.9918218705</v>
       </c>
       <c r="I2" t="n">
-        <v>338927.9918218704</v>
+        <v>338927.9918218705</v>
       </c>
       <c r="J2" t="n">
         <v>338927.9918218705</v>
       </c>
       <c r="K2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218707</v>
       </c>
       <c r="L2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218707</v>
       </c>
       <c r="M2" t="n">
-        <v>338927.9918218704</v>
+        <v>338927.9918218705</v>
       </c>
       <c r="N2" t="n">
         <v>338927.9918218705</v>
       </c>
       <c r="O2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218704</v>
       </c>
       <c r="P2" t="n">
         <v>338927.9918218704</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910622</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.2452810931</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,10 +26456,10 @@
         <v>61945.21508231327</v>
       </c>
       <c r="O4" t="n">
-        <v>61945.21508231327</v>
+        <v>61945.21508231326</v>
       </c>
       <c r="P4" t="n">
-        <v>61945.21508231327</v>
+        <v>61945.21508231326</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="H5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
         <v>44136.03802033843</v>
@@ -26502,13 +26502,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46402.29573623505</v>
+        <v>46402.29573623517</v>
       </c>
       <c r="C6" t="n">
         <v>127171.7272677829</v>
       </c>
       <c r="D6" t="n">
-        <v>127171.7272677828</v>
+        <v>127171.7272677829</v>
       </c>
       <c r="E6" t="n">
-        <v>-143557.4849872935</v>
+        <v>-137285.4528709345</v>
       </c>
       <c r="F6" t="n">
-        <v>225877.8141454866</v>
+        <v>232149.8462618456</v>
       </c>
       <c r="G6" t="n">
-        <v>225877.8141454865</v>
+        <v>232149.8462618456</v>
       </c>
       <c r="H6" t="n">
-        <v>225877.8141454865</v>
+        <v>232149.8462618456</v>
       </c>
       <c r="I6" t="n">
-        <v>225877.8141454864</v>
+        <v>232149.8462618456</v>
       </c>
       <c r="J6" t="n">
-        <v>162817.8715463803</v>
+        <v>169089.9036627393</v>
       </c>
       <c r="K6" t="n">
-        <v>225877.8141454866</v>
+        <v>232149.8462618457</v>
       </c>
       <c r="L6" t="n">
-        <v>225877.8141454866</v>
+        <v>232149.8462618457</v>
       </c>
       <c r="M6" t="n">
-        <v>133863.5688643933</v>
+        <v>140135.6009807525</v>
       </c>
       <c r="N6" t="n">
-        <v>225877.8141454865</v>
+        <v>232149.8462618456</v>
       </c>
       <c r="O6" t="n">
-        <v>225877.8141454866</v>
+        <v>232149.8462618454</v>
       </c>
       <c r="P6" t="n">
-        <v>225877.8141454865</v>
+        <v>232149.8462618455</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="H3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="I3" t="n">
         <v>322.6158759445108</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="H4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
         <v>610.246906657041</v>
@@ -26822,13 +26822,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="N4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>319.1698855250446</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10.31505646155395</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27469,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>319.1698855250446</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>162.9216867602636</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="H8" t="n">
-        <v>327.6110753204746</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>184.5600776307289</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28031,10 +28031,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31995,7 +31995,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093284</v>
@@ -32007,7 +32007,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
         <v>231.4177177265083</v>
@@ -32019,16 +32019,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
         <v>112.054233062727</v>
@@ -32092,22 +32092,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
         <v>0.04565318999214778</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223823</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
         <v>48.71499726762114</v>
@@ -32183,13 +32183,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L17" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P17" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517341</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
-        <v>29.55420813300722</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P18" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T18" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223824</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L20" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M20" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O20" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P20" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q20" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517341</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
-        <v>29.55420813300722</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O21" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P21" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T21" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223824</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R22" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T22" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35506,10 +35506,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L14" t="n">
         <v>386.5629597537834</v>
@@ -35661,13 +35661,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846583</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35737,16 +35737,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4428713250343</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185922</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
         <v>130.7783941571062</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L17" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O17" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P17" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846584</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009466</v>
@@ -35974,16 +35974,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831783</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>226.3322895077436</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185922</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
         <v>130.7783941571062</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L20" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O20" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P20" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q20" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.45228430891414</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36211,16 +36211,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831783</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O21" t="n">
-        <v>416.3693146658878</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
         <v>130.7783941571062</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36454,10 +36454,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
@@ -36691,10 +36691,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
-        <v>192.9196850695263</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
         <v>499.39668221774</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.45228430891401</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891446</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
@@ -37396,7 +37396,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
-        <v>207.3158823613948</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
@@ -37633,7 +37633,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909531</v>
+        <v>446.9000637909527</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
@@ -37870,7 +37870,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>403.2573043735003</v>
+        <v>497.1177477436264</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>446.9000637909531</v>
       </c>
       <c r="N44" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419009</v>
       </c>
       <c r="O44" t="n">
         <v>369.2231584563177</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
